--- a/docs/test results/game scores.xlsx
+++ b/docs/test results/game scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\COSC343\Assignments\Assignment 2 - Snakes\snakes-on-a-grid\docs\test results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brook\Documents\COSC343 - Artifical Intelligence\snakes-on-a-grid\docs\test results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ABF1DC-296F-423B-8234-6A986A1FCA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62303F2-3480-453F-9789-154F84988C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="3375" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Default</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>500 generation test</t>
+  </si>
+  <si>
+    <t>Trial</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1895,6 +1897,575 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Game Score Comparison between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> default &amp; elitism profile</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Game 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Game 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Game 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Game 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Game 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6300-4122-8C75-98533ED6C7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elitism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Game 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Game 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Game 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Game 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Game 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6300-4122-8C75-98533ED6C7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1881646047"/>
+        <c:axId val="1881661439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1881646047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881661439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1881661439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>game score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.5475216007276033E-2"/>
+              <c:y val="0.3972323754733611"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881646047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1975,6 +2546,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -3041,6 +3652,527 @@
         </a:bgClr>
       </a:pattFill>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3114,6 +4246,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE868FF-E2CC-422C-A65C-B803329AB53F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3385,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,7 +4836,8 @@
         <v>197</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3691,6 +4862,95 @@
       <c r="G14">
         <f t="shared" si="1"/>
         <v>153.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>AVERAGE(B17:B31)</f>
+        <v>100.06666666666666</v>
       </c>
     </row>
   </sheetData>
